--- a/Dokumenti/Gustavs_Narvils_KV_Testpiemeri.xlsx
+++ b/Dokumenti/Gustavs_Narvils_KV_Testpiemeri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narvi\Desktop\ScoreStorm\Dokumenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B36FE-EC56-4E32-9E6A-8C883D6E903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AD25BA-12ED-43F5-BE0C-A52490C407ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apraksts" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="344">
   <si>
     <t>Identifikatoru atšifrējjums</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Spēles līmeņa izvēlne</t>
-  </si>
-  <si>
-    <t>Spēles sākšana</t>
   </si>
   <si>
     <t>PR.SP.02.</t>
@@ -506,11 +503,6 @@
   </si>
   <si>
     <t>TP.SP.02.</t>
-  </si>
-  <si>
-    <t>1) Jātrodas spēles logā
-2) Spēlei ir jābūt sākušai
-3) Spēlētājam nevajadzētu būt mirušam</t>
   </si>
   <si>
     <t>Staigāt uz priekšu izmantojot "W"</t>
@@ -622,13 +614,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Jātrodas spēles logā
-2) Spēlei ir jābūt sākušai
-3) Spēlētājam nevajadzētu būt mirušam
-4) Spēlētājam ir jābūt "idle" stāvoklī
-</t>
-  </si>
-  <si>
     <t>1) Tur "W" taustiņu
 2) Izpildas GetDataMove() funkcija
 3) vInput vērtība tiek iestatīta par 1f
@@ -658,6 +643,564 @@
   </si>
   <si>
     <t>Spēles pacēļamie objekti</t>
+  </si>
+  <si>
+    <t>Spēle tēla izvēle</t>
+  </si>
+  <si>
+    <t>TP.PS.01.</t>
+  </si>
+  <si>
+    <t>Jātrodas pirmsspēles logā.</t>
+  </si>
+  <si>
+    <t>Izvēlēties pirmo spēlētāju</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa klikšķis uz pirmā spēlētāja attēla</t>
+  </si>
+  <si>
+    <t>Tiek spēlēta izvēles skaņa un pārādās līmeņu izvēle</t>
+  </si>
+  <si>
+    <t>TP.PS.02.</t>
+  </si>
+  <si>
+    <t>TP.PS.03.</t>
+  </si>
+  <si>
+    <t>Spēle līmeņa izvēle</t>
+  </si>
+  <si>
+    <t>Ekrāna rezolūcija tiek nomainīta uz 2560x1080 un parādās paziņojums konsoles logā.</t>
+  </si>
+  <si>
+    <t>KZ.01</t>
+  </si>
+  <si>
+    <t>Neveiksmīgs</t>
+  </si>
+  <si>
+    <t>Neparadījās konsoles loga paziņojums.</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa klikšķis uz pirmā spēles līmeņa attēla</t>
+  </si>
+  <si>
+    <t>Tiek spēlēta izvēles skaņa un pārādās spēles logs, tam ir jābūt izvēlētam līmenim</t>
+  </si>
+  <si>
+    <t>Izvēlēties otro līmeni</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa klikšķis uz otrā spēles līmeņa attēla</t>
+  </si>
+  <si>
+    <t>TP.PS.04.</t>
+  </si>
+  <si>
+    <t>Palīdzības loga atvēršana</t>
+  </si>
+  <si>
+    <t>Atvērt vaļā palīdzības logu</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa klikšķis uz pogas ar apzīmējumu "i"</t>
+  </si>
+  <si>
+    <t>Tiek spēlēta pogas skaņa un pārādās palīdzības logs ar pirmo lapaspusi</t>
+  </si>
+  <si>
+    <t>TP.PS.05.</t>
+  </si>
+  <si>
+    <t>Palīdzības loga aizvēršana</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa klikšķis uz pogas ar apzīmējumu "X"</t>
+  </si>
+  <si>
+    <t>Aizvērt ciet palīdzības logu</t>
+  </si>
+  <si>
+    <t>1) Jātrodas pirmsspēles logā.
+2) Jābūt atvērtam palīdzības logam.</t>
+  </si>
+  <si>
+    <t>Tiek spēlēta pogas skaņa un tiek aizvērts palīdzības logs</t>
+  </si>
+  <si>
+    <t>TZ.11.B.</t>
+  </si>
+  <si>
+    <t>TZ.12.B.</t>
+  </si>
+  <si>
+    <t>TZ.13.B.</t>
+  </si>
+  <si>
+    <t>TZ.14.B.</t>
+  </si>
+  <si>
+    <t>TZ.15.B.</t>
+  </si>
+  <si>
+    <t>TZ.16.B.</t>
+  </si>
+  <si>
+    <t>03.06.2024.</t>
+  </si>
+  <si>
+    <t>KZ.02</t>
+  </si>
+  <si>
+    <t>Parādijās otrā lapaspuse nevis pirmā.</t>
+  </si>
+  <si>
+    <t>Skatīšanās apkārt</t>
+  </si>
+  <si>
+    <t>Skatīties apkārt</t>
+  </si>
+  <si>
+    <t>1) Kustina peli</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlei nav jābūt beigusies</t>
+  </si>
+  <si>
+    <t>Datorpeles kustināšana</t>
+  </si>
+  <si>
+    <t>Spēles kamera tiek pakustināta</t>
+  </si>
+  <si>
+    <t>Skriešana uz priekšu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlētājam ir jābūt "idle" stāvoklī
+5) Spēlei nav jābūt beigusies
+</t>
+  </si>
+  <si>
+    <t>Skriet uz priekšu</t>
+  </si>
+  <si>
+    <t>1) Tur "W" taustiņu
+2) Tur "Left Shift" taustiņu</t>
+  </si>
+  <si>
+    <t>"W" un "Left Shift" taustiņu turēšana</t>
+  </si>
+  <si>
+    <t>Spēlētājs skrien uz priekšu</t>
+  </si>
+  <si>
+    <t>Ieroča mērķēšana</t>
+  </si>
+  <si>
+    <t>Mērķēt ieroci</t>
+  </si>
+  <si>
+    <t>1) Tur peles labo taustiņu</t>
+  </si>
+  <si>
+    <t>peles labā taustiņa turēšana</t>
+  </si>
+  <si>
+    <t>Spēlētājs mērķē ieroci un uz ekrāna parādās sarkans punkts</t>
+  </si>
+  <si>
+    <t>TP.SP.05.</t>
+  </si>
+  <si>
+    <t>TP.SP.06.</t>
+  </si>
+  <si>
+    <t>Ieroča pārlādēšana</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlei nav jābūt beigusies
+5) Spēlētājam jābūt vel vismaz viena pārpalikusi lode
+6) Spēlētājam jābūt izšautai vismaz viena lode</t>
+  </si>
+  <si>
+    <t>Pārlādēt ieroci</t>
+  </si>
+  <si>
+    <t>1) Nospiež taustiņu "R"</t>
+  </si>
+  <si>
+    <t>Nospiež taustiņu "R"</t>
+  </si>
+  <si>
+    <t>Spēlētājs pārlādē ieroci un ierocim ir jābūt visas lodes ielādētas.</t>
+  </si>
+  <si>
+    <t>TP.SP.07.</t>
+  </si>
+  <si>
+    <t>Pretinieku sekošana</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlei nav jābūt beigusies
+5) Spēlētājam jānošauj 9 pretinieki kopā</t>
+  </si>
+  <si>
+    <t>Pretinieks seko spēlētājam</t>
+  </si>
+  <si>
+    <t>1) Spēlētājs nošauj pretinieku</t>
+  </si>
+  <si>
+    <t>Spēlētājs nošauj pretinieku</t>
+  </si>
+  <si>
+    <t>Tiek spēlēta ieraudzīšanas skaņa un visi pretinieki uz laukuma sāk sekot spēlētājam</t>
+  </si>
+  <si>
+    <t>TZ.17.B.</t>
+  </si>
+  <si>
+    <t>TZ.18.B.</t>
+  </si>
+  <si>
+    <t>TZ.19.B.</t>
+  </si>
+  <si>
+    <t>TZ.20.B.</t>
+  </si>
+  <si>
+    <t>TZ.21.B.</t>
+  </si>
+  <si>
+    <t>04.06.2024.</t>
+  </si>
+  <si>
+    <t>TP.SP.08.</t>
+  </si>
+  <si>
+    <t>TP.SP.09.</t>
+  </si>
+  <si>
+    <t>TP.IES.07.</t>
+  </si>
+  <si>
+    <t>TP.IES.08.</t>
+  </si>
+  <si>
+    <t>TP.IES.09.</t>
+  </si>
+  <si>
+    <t>Nomainīt peles kustināšanas ātrumu</t>
+  </si>
+  <si>
+    <t>Nomainīt mūzikas skaļumu</t>
+  </si>
+  <si>
+    <t>Nomainīt spēles skaņas skaļuimu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Jātrodas iestatījuma logā.
+</t>
+  </si>
+  <si>
+    <t>Uzlikt peles ātrumu uz mazāko iespējamo vērtību</t>
+  </si>
+  <si>
+    <t>Uzlikt mūzikas skaļumu uz mazāko iespējamo vērtību</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa turēšana uz bīdņa
+2) Peles kustināšana uz kreiso pusi
+3) Izpildas OnSensitivityChanged()
+4) Saglabā bīdņa vērtību PlayerPrefs Sensitivity atslēgai</t>
+  </si>
+  <si>
+    <t>Peles kreisā taustiņa turēšana un kustināšana pa kreisi</t>
+  </si>
+  <si>
+    <t>Peles ātrumam ir jābūt 100</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa turēšana uz bīdņa
+2) Peles kustināšana uz kreiso pusi
+3) Izpildas OnMusicChanged()
+4) Saglabā bīdņa vērtību PlayerPrefs Music atslēgai</t>
+  </si>
+  <si>
+    <t>1) Peles kreisā taustiņa turēšana uz bīdņa
+2) Peles kustināšana uz kreiso pusi
+3) Izpildas OnSoundChanged()
+4) Saglabā bīdņa vērtību PlayerPrefs Sound atslēgai</t>
+  </si>
+  <si>
+    <t>Mūzikas skaļumam ir jābūt 0 un nevajadzētu skanēt vairs.</t>
+  </si>
+  <si>
+    <t>Skaņas skaļumam ir jābūt 0 un nevajadzētu skanēt vairs.</t>
+  </si>
+  <si>
+    <t>TZ.11.W.</t>
+  </si>
+  <si>
+    <t>TZ.12.W.</t>
+  </si>
+  <si>
+    <t>TZ.13.W.</t>
+  </si>
+  <si>
+    <t>TZ.14.W.</t>
+  </si>
+  <si>
+    <t>TP.SP.10.</t>
+  </si>
+  <si>
+    <t>TP.SP.11.</t>
+  </si>
+  <si>
+    <t>TP.SP.12.</t>
+  </si>
+  <si>
+    <t>TP.SP.13.</t>
+  </si>
+  <si>
+    <t>TP.SP.14.</t>
+  </si>
+  <si>
+    <t>TP.SP.15.</t>
+  </si>
+  <si>
+    <t>TP.SP.16.</t>
+  </si>
+  <si>
+    <t>TP.SP.17.</t>
+  </si>
+  <si>
+    <t>Šaut spēles ieroci</t>
+  </si>
+  <si>
+    <t>Spēles tēla ieroča maiņa</t>
+  </si>
+  <si>
+    <t>Spēles tēla ieroča bloķēšana</t>
+  </si>
+  <si>
+    <t>TP.SP.18.</t>
+  </si>
+  <si>
+    <t>TZ.22.W.</t>
+  </si>
+  <si>
+    <t>TZ.21.W.</t>
+  </si>
+  <si>
+    <t>TZ.20.W.</t>
+  </si>
+  <si>
+    <t>TZ.19.W.</t>
+  </si>
+  <si>
+    <t>TZ.18.W.</t>
+  </si>
+  <si>
+    <t>TZ.17.W.</t>
+  </si>
+  <si>
+    <t>TZ.16.W.</t>
+  </si>
+  <si>
+    <t>TZ.15.W.</t>
+  </si>
+  <si>
+    <t>TZ.23.W.</t>
+  </si>
+  <si>
+    <t>Spēles beigšanas loga pārādīšanās</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlētājam ir jābūt "aim" stāvoklī
+5) Spēlei nav jābūt beigusies
+6) Spēlētājam jātur peles labais taustiņš
+7) Spēlētājam ir jābūt vismaz vienai lodei</t>
+  </si>
+  <si>
+    <t>Peles kreisā taustiņa nospiešana</t>
+  </si>
+  <si>
+    <t>1) Nospiež peles kreiso taustiņu
+2) currentAmmo vērtība viens tiek atņemts</t>
+  </si>
+  <si>
+    <t>1) Spēlēta izšaušanas skaņa
+2) currentAmmo vērtībai atņemts 1
+3) Parādās lodes spēles objekts
+4) Aktivējas kameras atsitums
+5) Ekrāna teksts parāda jauno currentAmmo vētību</t>
+  </si>
+  <si>
+    <t>1) Spēlētājs nošauj pretinieku
+2) Izpildās funkcija showVictoryPanel
+3) Spēles objekts victoryPanel ir iestatīts kā true
+4) Dabū tagadējo līmeni un spēlētāju
+5) Iestata tekstiem punkti, laiks, kopa, ranks vērtības.
+6) Parāda peles kursoru</t>
+  </si>
+  <si>
+    <t>1)Parādās uzvares panelis
+2)Spēlēta uzvaras skaņa
+3)Parādās spēlētāja bilde</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlei nav jābūt beigusies
+5) Kombo jābūt iesāktam vismaz 1</t>
+  </si>
+  <si>
+    <t>Gaidīt kamēr kombo skaitītājs pazūd</t>
+  </si>
+  <si>
+    <t>Gaida 10 sekundes</t>
+  </si>
+  <si>
+    <t>1) Pagaida 10 sekundes neko citu nedarot
+2) Tiek izdarīta funkicja ResetCombo()
+3) Tiek izdarīta funkcija UpdateComboMultiplierText()</t>
+  </si>
+  <si>
+    <t>Pretinieku parādīšanās uz kartes</t>
+  </si>
+  <si>
+    <t>Parādīsies pretinieks uz kartes nejaušā vietā.</t>
+  </si>
+  <si>
+    <t>1) Nošauj pretinieku
+2) Izdara funkcija spawnEnemy()
+3) Atrod parādīšanas vietu</t>
+  </si>
+  <si>
+    <t>Nošauj pretinieku</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlētājam ir jābūt "idle" stāvoklī
+5) Spēlei nav jābūt beigusies
+6) Spēlētājas nevar būt "Reload" un "Guard" stāvokļos</t>
+  </si>
+  <si>
+    <t>Pārmainīt spēles ieroci</t>
+  </si>
+  <si>
+    <t>1) Nospiež "Q" taustiņu
+2) Maina stāvokli uz Switch
+3) Vērtībai lHandIk svaru iestata 0
+4) Vērtībai rHandAim svaru iestata 0
+5) Konsoles logā parāda paziņojumu Swap</t>
+  </si>
+  <si>
+    <t>"Q" taustiņa nospiešana</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlētājam ir jābūt "idle" stāvoklī
+5) Spēlei nav jābūt beigusies
+6) Spēlētājas nevar būt "Reload" un "Swap" stāvokļos</t>
+  </si>
+  <si>
+    <t>1) Tiek spēlēta maiņas animācija
+2) Tiek spēlēta maiņas skaņa
+3) Ierocis tiek nomainīts uz citu
+4) Spēlētājs aiziet uz "Default" stāvokli</t>
+  </si>
+  <si>
+    <t>"Space" taustiņa nospiešana</t>
+  </si>
+  <si>
+    <t>1) Nospiež "Space" taustiņu
+2) Maina stāvokli uz Guard
+3) Vērtībai lHandIk svaru iestata 0
+4) Vērtībai rHandAim svaru iestata 0
+5) Konsoles logā parāda paziņojumu Guard
+6) Visi bojājumi spēlētājam tiek samazināti uz 50% procentiem
+7) Dod iespēju bloķēt ugunsbumbas</t>
+  </si>
+  <si>
+    <t>1) Tiek spēlēta bloķēšanas animācija
+2) Spēlētājs aiziet uz "Default" stāvokli</t>
+  </si>
+  <si>
+    <t>Pacelt laika kapsulu</t>
+  </si>
+  <si>
+    <t>1) Jātrodas spēles logā
+2) Spēlei ir jābūt sākušai
+3) Spēlētājam nevajadzētu būt mirušam
+4) Spēlei nav jābūt beigusies
+5) Vērtībai killedEnemy ir jābūt 99</t>
+  </si>
+  <si>
+    <t>1) Nospiež "E" taustiņu
+2) Tiek spēlēta pacelšanas skaņa 
+3) Tiek objekts paslēpts
+4) Tiek izpildīta AddTime() funkcija
+5) Pēc skaņas beigas objekts tiek iznīcināts</t>
+  </si>
+  <si>
+    <t>"E" taustiņa nospiešana</t>
+  </si>
+  <si>
+    <t>Tiek pieskaitīts klāt 60 sekundes pie laika</t>
+  </si>
+  <si>
+    <t>Pretinieks atņem spēlētājam dzīvbas</t>
+  </si>
+  <si>
+    <t>1) Parastais pretinieks iesit spēlētājam
+2) Spēlētājs ieiet reaģēšanas stāvoklī
+3) Tiek izpildīta funkcija TakeDamage()
+4) Vizuālā dzīvības līnija tiek samazināta par 50 vērtībām</t>
+  </si>
+  <si>
+    <t>1) Spēlētājam atņem 50 dzīvības.
+2) Spēlētājs izdara reaģēšanas animāciju</t>
+  </si>
+  <si>
+    <t>Pretinieks uzbrūk spēlētājam</t>
+  </si>
+  <si>
+    <t>1) Spēlētājs iešauj pretiniekam
+2) Pretinieka EnemyHealth vērtība tiek iestatīta uz 0
+3) Pretinieks izdara miršanas skaņu
+4) Pretiniekam iedarbojas ragdoll
+5) Sāk 5 sekundžu atskaiti</t>
+  </si>
+  <si>
+    <t>1) Pretinieks nokrīt uz zemes
+2) Pretinieka spēles objekts pēc piecām sekundēm tiek iznīcināts</t>
+  </si>
+  <si>
+    <t>Pazūd kombo skaitītājs</t>
   </si>
 </sst>
 </file>
@@ -752,7 +1295,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,6 +1323,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,50 +1418,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -924,11 +1440,66 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,28 +1793,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1266,12 +1837,12 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1332,9 +1903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="A1:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,10 +1915,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1358,34 +1929,34 @@
       <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1396,203 +1967,203 @@
       <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,11 +2199,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,624 +2218,1207 @@
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E27" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D28" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="G28" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C29" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G29" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="H29" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E30" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="G30" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E31" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="H31" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C33" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D33" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E33" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G33" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="34" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C34" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D34" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E34" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G34" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="H34" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="35" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D35" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E35" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G35" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C40" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C41" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="E41" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G41" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="153" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>77</v>
+      <c r="H41" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A25:H25"/>
+  <mergeCells count="7">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A32:H32"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2273,11 +3427,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,529 +3447,1090 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D9" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F29" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F30" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F31" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F32" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F34" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F36" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F37" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F38" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E42" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F43" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G43" s="21"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F44" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F45" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F46" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F47" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F48" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F49" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F50" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F51" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F52" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="5"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A25:H25"/>
+  <mergeCells count="7">
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A33:H33"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
